--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\ADSM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\xADSM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455DFA20-05D3-4AB3-9868-6F09B9CF036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E64044-5E7B-4EE4-9498-FDCA1D5C60DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
   <si>
     <t>xx</t>
   </si>
@@ -376,19 +376,118 @@
   </si>
   <si>
     <t>Soft_Drink</t>
+  </si>
+  <si>
+    <t>Verdict Luckett Kendall Total</t>
+  </si>
+  <si>
+    <t>Upheld</t>
+  </si>
+  <si>
+    <t>Reversed</t>
+  </si>
+  <si>
+    <t>129 (86%)</t>
+  </si>
+  <si>
+    <t>21 (14%)</t>
+  </si>
+  <si>
+    <t>110 (88%)</t>
+  </si>
+  <si>
+    <t>15 (12%)</t>
+  </si>
+  <si>
+    <t>Total (%) 150 (100%) 125 (100%) 275</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total (%)</t>
+  </si>
+  <si>
+    <t>150 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 125 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verdict  </t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>29 (91%)</t>
+  </si>
+  <si>
+    <t>3 (9%)</t>
+  </si>
+  <si>
+    <t>100 (85%)</t>
+  </si>
+  <si>
+    <t>Luckett</t>
+  </si>
+  <si>
+    <t>Kendall</t>
+  </si>
+  <si>
+    <t>Judge_Case</t>
+  </si>
+  <si>
+    <t>Common Pleas</t>
+  </si>
+  <si>
+    <t>Municipal Court</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ex27</t>
+  </si>
+  <si>
+    <t>Ex28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -449,26 +548,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -479,7 +578,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,7 +869,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,149 +884,146 @@
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="str">
         <f ca="1">TRIM(CONCATENATE("| ", INDIRECT("RC[1]", 0), IF(ISBLANK(INDIRECT("RC[2]", 0)),,CONCATENATE(" | ", INDIRECT("RC[2]", 0))), IF(ISBLANK(INDIRECT("RC[3]", 0)),,CONCATENATE(" | ", INDIRECT("RC[3]", 0))), IF(ISBLANK(INDIRECT("RC[4]", 0)),,CONCATENATE(" | ", INDIRECT("RC[4]", 0))), IF(ISBLANK(INDIRECT("RC[5]", 0)),,CONCATENATE(" | ", INDIRECT("RC[5]", 0))), IF(ISBLANK(INDIRECT("RC[6]", 0)),,CONCATENATE(" | ", INDIRECT("RC[6]", 0))), IF(ISBLANK(INDIRECT("RC[7]", 0)),,CONCATENATE(" | ", INDIRECT("RC[7]", 0))), " | " ))</f>
-        <v>| Company | 2007 | 2008 | 2009 | 2010 |</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2008</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="G1" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>| | Verdict | Common | Municipal | Total | Common | Municipal |</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f ca="1">COUNTA(1:1)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B11" ca="1" si="0">TRIM(CONCATENATE("| ", INDIRECT("RC[1]", 0), IF(ISBLANK(INDIRECT("RC[2]", 0)),,CONCATENATE(" | ", INDIRECT("RC[2]", 0))), IF(ISBLANK(INDIRECT("RC[3]", 0)),,CONCATENATE(" | ", INDIRECT("RC[3]", 0))), IF(ISBLANK(INDIRECT("RC[4]", 0)),,CONCATENATE(" | ", INDIRECT("RC[4]", 0))), IF(ISBLANK(INDIRECT("RC[5]", 0)),,CONCATENATE(" | ", INDIRECT("RC[5]", 0))), IF(ISBLANK(INDIRECT("RC[6]", 0)),,CONCATENATE(" | ", INDIRECT("RC[6]", 0))), IF(ISBLANK(INDIRECT("RC[7]", 0)),,CONCATENATE(" | ", INDIRECT("RC[7]", 0))), " | " ))</f>
-        <v>| Hertz | 327 | 311 | 286 | 290 |</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="4">
-        <v>327</v>
-      </c>
-      <c r="E2" s="4">
-        <v>311</v>
-      </c>
-      <c r="F2" s="1">
-        <v>286</v>
-      </c>
-      <c r="G2" s="1">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>| | Upheld | 29 (91%) | 100 (85%) | 239 |</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>| Dollar | 167 | 140 | 106 | 108 |</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="4">
-        <v>167</v>
-      </c>
-      <c r="E3" s="4">
-        <v>140</v>
-      </c>
-      <c r="F3" s="1">
-        <v>106</v>
+        <v>| | Reversed | 3 (9%) | 15 (12%) | 36 |</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G3" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
         <f ca="1">CONCATENATE(REPT("| :--- ", $A$2-2),$A$1)</f>
-        <v xml:space="preserve">| :--- | :--- | :--- | :--- | :---  | </v>
+        <v xml:space="preserve">| :--- | :--- | :--- | :--- | :--- | :--- | :---  | </v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>| Avis | 204 | 220 | 300 | 270 |</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="4">
-        <v>204</v>
-      </c>
-      <c r="E4" s="4">
-        <v>220</v>
-      </c>
-      <c r="F4" s="1">
-        <v>300</v>
+        <v>| | Total (%) | 150 (100%) | 125 (100%) | 275 |</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="G4" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>| |</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
         <f ca="1">CONCATENATE(REPT("| :---: ", $A$2-3),$A$1)</f>
-        <v xml:space="preserve">| :---: | :---: | :---: | :---:  | </v>
+        <v xml:space="preserve">| :---: | :---: | :---: | :---: | :---: | :---:  | </v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>| |</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f ca="1">CONCATENATE(REPT("| ---: ", $A$2-3),$A$1)</f>
-        <v xml:space="preserve">| ---: | ---: | ---: | ---:  | </v>
+        <v xml:space="preserve">| ---: | ---: | ---: | ---: | ---: | ---:  | </v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>| |</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>| |</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>| |</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>| |</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -930,22 +1032,23 @@
         <v>| |</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1099,7 +1202,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1880,20 +1983,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E23DD1-65A2-41D3-8036-79D479D43826}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>109</v>
       </c>
@@ -1901,7 +2011,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>99</v>
       </c>
@@ -1909,7 +2019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>107</v>
       </c>
@@ -1917,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>108</v>
       </c>
@@ -1925,7 +2035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>104</v>
       </c>
@@ -1933,12 +2043,637 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>129</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9">
+        <v>90</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>79</v>
+      </c>
+      <c r="G17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>71</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>84</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>59</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="11">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>62</v>
+      </c>
+      <c r="G31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1949,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8725100-A1E1-4BF5-A8F9-DEA8ACC33E0A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="C11" sqref="C11:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1974,7 +2709,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="str">
-        <f ca="1">TRIM(CONCATENATE(INDIRECT("RC[1]", 0), IF(ISBLANK(INDIRECT("RC[2]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[2]", 0))), IF(ISBLANK(INDIRECT("RC[3]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[3]", 0))) ))</f>
+        <f t="shared" ref="B2:B7" ca="1" si="0">TRIM(CONCATENATE(INDIRECT("RC[1]", 0), IF(ISBLANK(INDIRECT("RC[2]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[2]", 0))), IF(ISBLANK(INDIRECT("RC[3]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[3]", 0))) ))</f>
         <v>Soft Drink</v>
       </c>
       <c r="C2" t="s">
@@ -1986,7 +2721,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="str">
-        <f ca="1">TRIM(CONCATENATE(INDIRECT("RC[1]", 0), IF(ISBLANK(INDIRECT("RC[2]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[2]", 0))), IF(ISBLANK(INDIRECT("RC[3]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[3]", 0))) ))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Coca-Cola</v>
       </c>
       <c r="C3" t="s">
@@ -1995,7 +2730,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
-        <f ca="1">TRIM(CONCATENATE(INDIRECT("RC[1]", 0), IF(ISBLANK(INDIRECT("RC[2]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[2]", 0))), IF(ISBLANK(INDIRECT("RC[3]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[3]", 0))) ))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Diet Coke</v>
       </c>
       <c r="C4" t="s">
@@ -2007,7 +2742,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="str">
-        <f ca="1">TRIM(CONCATENATE(INDIRECT("RC[1]", 0), IF(ISBLANK(INDIRECT("RC[2]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[2]", 0))), IF(ISBLANK(INDIRECT("RC[3]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[3]", 0))) ))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Dr. Pepper</v>
       </c>
       <c r="C5" t="s">
@@ -2019,7 +2754,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="str">
-        <f ca="1">TRIM(CONCATENATE(INDIRECT("RC[1]", 0), IF(ISBLANK(INDIRECT("RC[2]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[2]", 0))), IF(ISBLANK(INDIRECT("RC[3]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[3]", 0))) ))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Pepsi</v>
       </c>
       <c r="C6" t="s">
@@ -2028,11 +2763,61 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
-        <f ca="1">TRIM(CONCATENATE(INDIRECT("RC[1]", 0), IF(ISBLANK(INDIRECT("RC[2]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[2]", 0))), IF(ISBLANK(INDIRECT("RC[3]", 0)),,CONCATENATE(R_Sep, INDIRECT("RC[3]", 0))) ))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Sprite</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\xADSM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E64044-5E7B-4EE4-9498-FDCA1D5C60DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526EE3CD-4097-42FB-A98C-98DE95CDF985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
     <sheet name="bb" sheetId="1" r:id="rId3"/>
-    <sheet name="BS01" sheetId="2" r:id="rId4"/>
-    <sheet name="BS02" sheetId="10" r:id="rId5"/>
-    <sheet name="IN" sheetId="7" r:id="rId6"/>
-    <sheet name="ConCat" sheetId="8" r:id="rId7"/>
-    <sheet name="PipeCat" sheetId="9" r:id="rId8"/>
+    <sheet name="BE01" sheetId="2" r:id="rId4"/>
+    <sheet name="IN" sheetId="7" r:id="rId5"/>
+    <sheet name="ConCat" sheetId="8" r:id="rId6"/>
+    <sheet name="PipeCat" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="R_Sep">IN!$A$1</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
   <si>
     <t>xx</t>
   </si>
@@ -342,9 +341,6 @@
     <t>Drink</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>Coca-Cola</t>
   </si>
   <si>
@@ -369,15 +365,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Diet Coke</t>
-  </si>
-  <si>
-    <t>Dr. Pepper</t>
-  </si>
-  <si>
-    <t>Soft_Drink</t>
-  </si>
-  <si>
     <t>Verdict Luckett Kendall Total</t>
   </si>
   <si>
@@ -430,45 +417,6 @@
   </si>
   <si>
     <t>100 (85%)</t>
-  </si>
-  <si>
-    <t>Luckett</t>
-  </si>
-  <si>
-    <t>Kendall</t>
-  </si>
-  <si>
-    <t>Judge_Case</t>
-  </si>
-  <si>
-    <t>Common Pleas</t>
-  </si>
-  <si>
-    <t>Municipal Court</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Ex27</t>
-  </si>
-  <si>
-    <t>Ex28</t>
   </si>
 </sst>
 </file>
@@ -893,25 +841,25 @@
         <v>| | Verdict | Common | Municipal | Total | Common | Municipal |</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -924,13 +872,13 @@
         <v>| | Upheld | 29 (91%) | 100 (85%) | 239 |</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G2" s="12">
         <v>239</v>
@@ -945,13 +893,13 @@
         <v>| | Reversed | 3 (9%) | 15 (12%) | 36 |</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="G3" s="1">
         <v>36</v>
@@ -967,13 +915,13 @@
         <v>| | Total (%) | 150 (100%) | 125 (100%) | 275 |</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1">
         <v>275</v>
@@ -1377,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B976E-6278-4D6D-8D44-5D014C68FAE9}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1982,712 +1930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E23DD1-65A2-41D3-8036-79D479D43826}">
-  <dimension ref="A1:K43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>129</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9">
-        <v>90</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10">
-        <v>110</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>28</v>
-      </c>
-      <c r="G14">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>17</v>
-      </c>
-      <c r="G15">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>52</v>
-      </c>
-      <c r="G16">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>79</v>
-      </c>
-      <c r="G17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>37</v>
-      </c>
-      <c r="G18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>71</v>
-      </c>
-      <c r="G19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <v>37</v>
-      </c>
-      <c r="G20">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>27</v>
-      </c>
-      <c r="G21">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>64</v>
-      </c>
-      <c r="G22">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>53</v>
-      </c>
-      <c r="G23">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>13</v>
-      </c>
-      <c r="G24">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>84</v>
-      </c>
-      <c r="G25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="E26" s="11">
-        <v>13</v>
-      </c>
-      <c r="F26">
-        <v>59</v>
-      </c>
-      <c r="G26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="11">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>17</v>
-      </c>
-      <c r="G27">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="11">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="E28" s="11">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>70</v>
-      </c>
-      <c r="G28">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="11">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="E29" s="11">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <v>47</v>
-      </c>
-      <c r="G29">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11">
-        <v>17</v>
-      </c>
-      <c r="F30">
-        <v>35</v>
-      </c>
-      <c r="G30">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11">
-        <v>18</v>
-      </c>
-      <c r="F31">
-        <v>62</v>
-      </c>
-      <c r="G31">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11">
-        <v>19</v>
-      </c>
-      <c r="F32">
-        <v>30</v>
-      </c>
-      <c r="G32">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="11">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11">
-        <v>20</v>
-      </c>
-      <c r="F33">
-        <v>43</v>
-      </c>
-      <c r="G33">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="11">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="11">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="11">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="11">
-        <v>24</v>
-      </c>
-      <c r="B37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="11">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="11">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="11">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="11">
-        <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="11">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="11">
-        <v>30</v>
-      </c>
-      <c r="B43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8725100-A1E1-4BF5-A8F9-DEA8ACC33E0A}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2701,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>71</v>
@@ -2725,7 +1972,7 @@
         <v>Coca-Cola</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2734,10 +1981,10 @@
         <v>Diet Coke</v>
       </c>
       <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2746,10 +1993,10 @@
         <v>Dr. Pepper</v>
       </c>
       <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2758,7 +2005,7 @@
         <v>Pepsi</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2767,42 +2014,42 @@
         <v>Sprite</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.35">
@@ -2817,7 +2064,7 @@
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA66420-FCC3-4F4D-876A-FF97C28DB8E8}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2930,7 +2177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C338BD5C-8F45-426F-A26F-2CE0AF58B2C7}">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\xADSM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526EE3CD-4097-42FB-A98C-98DE95CDF985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F5C0F9-A2A9-4005-A5D4-9FE400DDE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
     <sheet name="bb" sheetId="1" r:id="rId3"/>
-    <sheet name="BE01" sheetId="2" r:id="rId4"/>
-    <sheet name="IN" sheetId="7" r:id="rId5"/>
-    <sheet name="ConCat" sheetId="8" r:id="rId6"/>
-    <sheet name="PipeCat" sheetId="9" r:id="rId7"/>
+    <sheet name="IN" sheetId="7" r:id="rId4"/>
+    <sheet name="ConCat" sheetId="8" r:id="rId5"/>
+    <sheet name="PipeCat" sheetId="9" r:id="rId6"/>
+    <sheet name="BE01" sheetId="2" r:id="rId7"/>
+    <sheet name="BE02" sheetId="10" r:id="rId8"/>
+    <sheet name="BE03" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="R_Sep">IN!$A$1</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="148">
   <si>
     <t>xx</t>
   </si>
@@ -417,6 +419,78 @@
   </si>
   <si>
     <t>100 (85%)</t>
+  </si>
+  <si>
+    <t>Soft_Drink</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Diet Coke</t>
+  </si>
+  <si>
+    <t>Dr. Pepper</t>
+  </si>
+  <si>
+    <t>Judge_Case</t>
+  </si>
+  <si>
+    <t>Luckett</t>
+  </si>
+  <si>
+    <t>Kendall</t>
+  </si>
+  <si>
+    <t>Common Pleas</t>
+  </si>
+  <si>
+    <t>Municipal Court</t>
+  </si>
+  <si>
+    <t>Ex27</t>
+  </si>
+  <si>
+    <t>Ex28</t>
+  </si>
+  <si>
+    <t>BE0214</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Commercials</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Cost_per_kg</t>
   </si>
 </sst>
 </file>
@@ -1322,614 +1396,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B976E-6278-4D6D-8D44-5D014C68FAE9}">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.36328125" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>80</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-      <c r="E6">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>72</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="4">
-        <v>599</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="4">
-        <v>299</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="F15" s="1">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="4">
-        <v>499</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F16" s="1">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="4">
-        <v>860</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="F17" s="1">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="4">
-        <v>668</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="4">
-        <v>899</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="4">
-        <v>530</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>8</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="4">
-        <v>590</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="F21" s="1">
-        <v>7</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>9</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="4">
-        <v>525</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="4">
-        <v>360</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="11">
-        <v>2007</v>
-      </c>
-      <c r="D26" s="11">
-        <v>2008</v>
-      </c>
-      <c r="E26" s="11">
-        <v>2009</v>
-      </c>
-      <c r="F26" s="11">
-        <v>2010</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27">
-        <v>327</v>
-      </c>
-      <c r="D27">
-        <v>311</v>
-      </c>
-      <c r="E27">
-        <v>286</v>
-      </c>
-      <c r="F27">
-        <v>290</v>
-      </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28">
-        <v>167</v>
-      </c>
-      <c r="D28">
-        <v>140</v>
-      </c>
-      <c r="E28">
-        <v>106</v>
-      </c>
-      <c r="F28">
-        <v>108</v>
-      </c>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29">
-        <v>204</v>
-      </c>
-      <c r="D29">
-        <v>220</v>
-      </c>
-      <c r="E29">
-        <v>300</v>
-      </c>
-      <c r="F29">
-        <v>270</v>
-      </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H30" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8725100-A1E1-4BF5-A8F9-DEA8ACC33E0A}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -2072,7 +1538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA66420-FCC3-4F4D-876A-FF97C28DB8E8}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2177,7 +1643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C338BD5C-8F45-426F-A26F-2CE0AF58B2C7}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2280,4 +1746,1522 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B976E-6278-4D6D-8D44-5D014C68FAE9}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="4">
+        <v>599</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4">
+        <v>299</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4">
+        <v>499</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F16" s="1">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4">
+        <v>860</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="4">
+        <v>668</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="4">
+        <v>899</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4">
+        <v>530</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4">
+        <v>590</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="4">
+        <v>525</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4">
+        <v>360</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2007</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2008</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2009</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2010</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>327</v>
+      </c>
+      <c r="D27">
+        <v>311</v>
+      </c>
+      <c r="E27">
+        <v>286</v>
+      </c>
+      <c r="F27">
+        <v>290</v>
+      </c>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28">
+        <v>167</v>
+      </c>
+      <c r="D28">
+        <v>140</v>
+      </c>
+      <c r="E28">
+        <v>106</v>
+      </c>
+      <c r="F28">
+        <v>108</v>
+      </c>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>204</v>
+      </c>
+      <c r="D29">
+        <v>220</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>270</v>
+      </c>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H30" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB65A3-1364-407C-A218-9CEDDB8B50CA}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>129</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9">
+        <v>90</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>72</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+      <c r="I15" s="11">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <v>58</v>
+      </c>
+      <c r="I16" s="11">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>79</v>
+      </c>
+      <c r="G17">
+        <v>34</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="I18" s="11">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>71</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="I19" s="11">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>77</v>
+      </c>
+      <c r="I20" s="11">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>85</v>
+      </c>
+      <c r="I21" s="11">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>45</v>
+      </c>
+      <c r="I22" s="11">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>47</v>
+      </c>
+      <c r="I23" s="11">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>98</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>84</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>59</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>81</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <v>34</v>
+      </c>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="11">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>64</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>68</v>
+      </c>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>62</v>
+      </c>
+      <c r="G31">
+        <v>67</v>
+      </c>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>39</v>
+      </c>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>28</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80035B98-A2A8-4D1B-8396-221B25D5B4C9}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.4</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.8</v>
+      </c>
+      <c r="C4">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.9</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.25</v>
+      </c>
+      <c r="C6">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\xADSM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F5C0F9-A2A9-4005-A5D4-9FE400DDE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC74759-DDFA-4A86-A307-74141959E31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="PipeCat" sheetId="9" r:id="rId6"/>
     <sheet name="BE01" sheetId="2" r:id="rId7"/>
     <sheet name="BE02" sheetId="10" r:id="rId8"/>
-    <sheet name="BE03" sheetId="11" r:id="rId9"/>
+    <sheet name="BE05" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="R_Sep">IN!$A$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="160">
   <si>
     <t>xx</t>
   </si>
@@ -491,6 +491,42 @@
   </si>
   <si>
     <t>Cost_per_kg</t>
+  </si>
+  <si>
+    <t>BE03</t>
+  </si>
+  <si>
+    <t>Geneva_Saratoga</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B976E-6278-4D6D-8D44-5D014C68FAE9}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -2358,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB65A3-1364-407C-A218-9CEDDB8B50CA}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2378,7 +2414,7 @@
     <col min="11" max="11" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
@@ -2386,7 +2422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>98</v>
       </c>
@@ -2394,7 +2430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>126</v>
       </c>
@@ -2402,7 +2438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>127</v>
       </c>
@@ -2410,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
@@ -2418,7 +2454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -2426,7 +2462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>128</v>
       </c>
@@ -2455,7 +2491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>129</v>
       </c>
@@ -2484,7 +2520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>130</v>
       </c>
@@ -2513,7 +2549,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M11" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>133</v>
       </c>
@@ -2523,8 +2564,17 @@
       <c r="I12" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M12" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>136</v>
       </c>
@@ -2552,8 +2602,17 @@
       <c r="K13" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -2581,8 +2640,17 @@
       <c r="K14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M14" s="11">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>3.4</v>
+      </c>
+      <c r="O14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2</v>
       </c>
@@ -2610,8 +2678,17 @@
       <c r="K15">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M15" s="11">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>2.8</v>
+      </c>
+      <c r="O15">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>3</v>
       </c>
@@ -2639,8 +2716,17 @@
       <c r="K16">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M16" s="11">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>2.9</v>
+      </c>
+      <c r="O16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -2668,8 +2754,17 @@
       <c r="K17">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M17" s="11">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>3.25</v>
+      </c>
+      <c r="O17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>5</v>
       </c>
@@ -2698,7 +2793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>6</v>
       </c>
@@ -2727,7 +2822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>7</v>
       </c>
@@ -2756,7 +2851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>8</v>
       </c>
@@ -2785,7 +2880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>9</v>
       </c>
@@ -2814,7 +2909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>10</v>
       </c>
@@ -2843,7 +2938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>11</v>
       </c>
@@ -2864,7 +2959,7 @@
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>12</v>
       </c>
@@ -2885,7 +2980,7 @@
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>13</v>
       </c>
@@ -2906,7 +3001,7 @@
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>14</v>
       </c>
@@ -2927,7 +3022,7 @@
       </c>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>15</v>
       </c>
@@ -2948,7 +3043,7 @@
       </c>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>16</v>
       </c>
@@ -2969,7 +3064,7 @@
       </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>17</v>
       </c>
@@ -2990,7 +3085,7 @@
       </c>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>18</v>
       </c>
@@ -3011,7 +3106,7 @@
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>19</v>
       </c>
@@ -3181,83 +3276,131 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80035B98-A2A8-4D1B-8396-221B25D5B4C9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="3.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
+        <v>155</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3.4</v>
-      </c>
-      <c r="C3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2.8</v>
-      </c>
-      <c r="C4">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2.9</v>
-      </c>
       <c r="C5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>3.25</v>
-      </c>
-      <c r="C6">
-        <v>800</v>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\xADSM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC74759-DDFA-4A86-A307-74141959E31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4006876-8B26-48C7-BF66-6062C575E016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,8 @@
     <sheet name="IN" sheetId="7" r:id="rId4"/>
     <sheet name="ConCat" sheetId="8" r:id="rId5"/>
     <sheet name="PipeCat" sheetId="9" r:id="rId6"/>
-    <sheet name="BE01" sheetId="2" r:id="rId7"/>
-    <sheet name="BE02" sheetId="10" r:id="rId8"/>
-    <sheet name="BE05" sheetId="11" r:id="rId9"/>
+    <sheet name="C01" sheetId="2" r:id="rId7"/>
+    <sheet name="C02" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="R_Sep">IN!$A$1</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="162">
   <si>
     <t>xx</t>
   </si>
@@ -454,9 +453,6 @@
     <t>Ex28</t>
   </si>
   <si>
-    <t>BE0214</t>
-  </si>
-  <si>
     <t>Observation</t>
   </si>
   <si>
@@ -493,9 +489,6 @@
     <t>Cost_per_kg</t>
   </si>
   <si>
-    <t>BE03</t>
-  </si>
-  <si>
     <t>Geneva_Saratoga</t>
   </si>
   <si>
@@ -527,6 +520,18 @@
   </si>
   <si>
     <t>y5</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>xxCommercials</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C08 -CreditCard</t>
   </si>
 </sst>
 </file>
@@ -608,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,6 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1788,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B976E-6278-4D6D-8D44-5D014C68FAE9}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -2394,24 +2400,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB65A3-1364-407C-A218-9CEDDB8B50CA}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="3.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -2421,6 +2426,18 @@
       <c r="B1" s="11" t="s">
         <v>125</v>
       </c>
+      <c r="E1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -2429,6 +2446,36 @@
       <c r="B2">
         <v>19</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2">
+        <v>129</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
@@ -2437,6 +2484,36 @@
       <c r="B3">
         <v>8</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3">
+        <v>110</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
@@ -2445,6 +2522,27 @@
       <c r="B4">
         <v>5</v>
       </c>
+      <c r="I4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>36</v>
+      </c>
+      <c r="L4">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -2453,6 +2551,36 @@
       <c r="B5">
         <v>13</v>
       </c>
+      <c r="E5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
@@ -2461,160 +2589,144 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9">
-        <v>129</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>131</v>
       </c>
-      <c r="F9">
-        <v>29</v>
-      </c>
-      <c r="G9">
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>3</v>
       </c>
-      <c r="I9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9">
-        <v>90</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10">
-        <v>110</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M11" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>146</v>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>138</v>
+      <c r="A13" s="11">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" s="11">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>1200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>142</v>
@@ -2622,785 +2734,926 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>28</v>
-      </c>
-      <c r="G14">
-        <v>72</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>50</v>
-      </c>
-      <c r="M14" s="11">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>3.4</v>
-      </c>
-      <c r="O14">
-        <v>500</v>
+      <c r="E14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="14">
+        <v>9430</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>143</v>
       </c>
       <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>17</v>
-      </c>
       <c r="G15">
-        <v>99</v>
-      </c>
-      <c r="I15" s="11">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>57</v>
-      </c>
-      <c r="M15" s="11">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>2.8</v>
-      </c>
-      <c r="O15">
-        <v>2750</v>
+        <v>50</v>
+      </c>
+      <c r="I15" s="14">
+        <v>7535</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>58</v>
-      </c>
-      <c r="I16" s="11">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>41</v>
-      </c>
-      <c r="M16" s="11">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>2.9</v>
-      </c>
-      <c r="O16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="I16" s="14">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="E17" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>34</v>
-      </c>
-      <c r="I17" s="11">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>54</v>
-      </c>
-      <c r="M17" s="11">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>3.25</v>
-      </c>
-      <c r="O17">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="I17" s="14">
+        <v>5604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" s="11">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>54</v>
+      </c>
+      <c r="I18" s="14">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
         <v>5</v>
       </c>
-      <c r="F18">
-        <v>37</v>
-      </c>
-      <c r="G18">
-        <v>60</v>
-      </c>
-      <c r="I18" s="11">
-        <v>5</v>
-      </c>
-      <c r="J18">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="G19">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>71</v>
-      </c>
-      <c r="G19">
-        <v>22</v>
-      </c>
-      <c r="I19" s="11">
-        <v>6</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I19" s="14">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="E20" s="11">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+      <c r="I20" s="14">
+        <v>10676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
         <v>7</v>
       </c>
-      <c r="F20">
-        <v>37</v>
-      </c>
-      <c r="G20">
-        <v>77</v>
-      </c>
-      <c r="I20" s="11">
-        <v>7</v>
-      </c>
-      <c r="J20">
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="K20">
+      <c r="G21">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
+      <c r="I21" s="14">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="11">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>27</v>
-      </c>
-      <c r="G21">
-        <v>85</v>
-      </c>
-      <c r="I21" s="11">
-        <v>8</v>
-      </c>
-      <c r="J21">
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="K21">
+      <c r="G22">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>64</v>
-      </c>
-      <c r="G22">
-        <v>45</v>
-      </c>
-      <c r="I22" s="11">
-        <v>9</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I22" s="14">
+        <v>10112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>143</v>
       </c>
       <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="11">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>59</v>
+      </c>
+      <c r="I23" s="14">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>46</v>
+      </c>
+      <c r="I24" s="14">
+        <v>13627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="14">
+        <v>18719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="E23" s="11">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>53</v>
-      </c>
-      <c r="G23">
-        <v>47</v>
-      </c>
-      <c r="I23" s="11">
-        <v>10</v>
-      </c>
-      <c r="J23">
+      <c r="E26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="14">
+        <v>14661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="14">
+        <v>12195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>1200</v>
+      </c>
+      <c r="I28" s="14">
+        <v>10544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
         <v>2</v>
       </c>
-      <c r="K23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="F29">
+        <v>3.4</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="I29" s="14">
+        <v>13659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>2.8</v>
+      </c>
+      <c r="G30">
+        <v>2750</v>
+      </c>
+      <c r="I30" s="14">
+        <v>7061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
         <v>142</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>13</v>
-      </c>
-      <c r="G24">
-        <v>98</v>
-      </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>84</v>
-      </c>
-      <c r="G25">
-        <v>21</v>
-      </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="E26" s="11">
-        <v>13</v>
-      </c>
-      <c r="F26">
-        <v>59</v>
-      </c>
-      <c r="G26">
-        <v>32</v>
-      </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="11">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>17</v>
-      </c>
-      <c r="G27">
-        <v>81</v>
-      </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="11">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="E28" s="11">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>70</v>
-      </c>
-      <c r="G28">
-        <v>34</v>
-      </c>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="11">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="E29" s="11">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <v>47</v>
-      </c>
-      <c r="G29">
-        <v>64</v>
-      </c>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11">
-        <v>17</v>
-      </c>
-      <c r="F30">
-        <v>35</v>
-      </c>
-      <c r="G30">
-        <v>68</v>
-      </c>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>143</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="E31" s="11">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>62</v>
+        <v>2.9</v>
       </c>
       <c r="G31">
-        <v>67</v>
-      </c>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="14">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="11">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>3.25</v>
       </c>
       <c r="G32">
-        <v>39</v>
-      </c>
-      <c r="I32" s="11"/>
+        <v>800</v>
+      </c>
+      <c r="I32" s="14">
+        <v>13021</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="E33" s="11">
-        <v>20</v>
-      </c>
-      <c r="F33">
-        <v>43</v>
-      </c>
-      <c r="G33">
-        <v>28</v>
-      </c>
-      <c r="I33" s="11"/>
+      <c r="I33" s="14">
+        <v>9719</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="I34" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="14">
+        <v>2200</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
         <v>143</v>
       </c>
       <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="I35" s="14">
+        <v>10746</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="I36" s="11"/>
+      <c r="I36" s="14">
+        <v>12744</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="I37" s="11"/>
+      <c r="I37" s="14">
+        <v>5742</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="I38" s="11"/>
+      <c r="I38" s="14">
+        <v>7159</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="I39" s="11"/>
+      <c r="I39" s="14">
+        <v>8137</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="11">
+      <c r="I40" s="14">
+        <v>9467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I41" s="14">
+        <v>12595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" s="14">
+        <v>7917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" s="14">
+        <v>11346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>72</v>
+      </c>
+      <c r="I44" s="14">
+        <v>12806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>99</v>
+      </c>
+      <c r="I45" s="14">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>58</v>
+      </c>
+      <c r="I46" s="14">
+        <v>11356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>79</v>
+      </c>
+      <c r="C47">
+        <v>34</v>
+      </c>
+      <c r="I47" s="14">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="11">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>60</v>
+      </c>
+      <c r="I48" s="14">
+        <v>9465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="I49" s="14">
+        <v>19263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="11">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>77</v>
+      </c>
+      <c r="I50" s="14">
+        <v>9071</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="11">
+        <v>8</v>
+      </c>
+      <c r="B51">
         <v>27</v>
       </c>
-      <c r="B40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="11">
+      <c r="C51">
+        <v>85</v>
+      </c>
+      <c r="I51" s="14">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="11">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>45</v>
+      </c>
+      <c r="I52" s="14">
+        <v>16804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="11">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>47</v>
+      </c>
+      <c r="I53" s="14">
+        <v>13479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="11">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>98</v>
+      </c>
+      <c r="I54" s="14">
+        <v>14044</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="11">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>84</v>
+      </c>
+      <c r="C55">
+        <v>21</v>
+      </c>
+      <c r="I55" s="14">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="11">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+      <c r="I56" s="14">
+        <v>6845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="11">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>81</v>
+      </c>
+      <c r="I57" s="14">
+        <v>10493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="11">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>70</v>
+      </c>
+      <c r="C58">
+        <v>34</v>
+      </c>
+      <c r="I58" s="14">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="11">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>47</v>
+      </c>
+      <c r="C59">
+        <v>64</v>
+      </c>
+      <c r="I59" s="14">
+        <v>13627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="11">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>68</v>
+      </c>
+      <c r="I60" s="14">
+        <v>12557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="11">
+        <v>18</v>
+      </c>
+      <c r="B61">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>67</v>
+      </c>
+      <c r="I61" s="14">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="11">
+        <v>19</v>
+      </c>
+      <c r="B62">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>39</v>
+      </c>
+      <c r="I62" s="14">
+        <v>9691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="11">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>43</v>
+      </c>
+      <c r="C63">
         <v>28</v>
       </c>
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="11">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="11">
-        <v>30</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="I43" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80035B98-A2A8-4D1B-8396-221B25D5B4C9}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="3.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>42</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="I63" s="14">
+        <v>11448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="14">
+        <v>8279</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65" s="14">
+        <v>5649</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I66" s="14">
+        <v>11298</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I67" s="14">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I68" s="14">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I69" s="14">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I70" s="14">
+        <v>12851</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I71" s="14">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I72" s="14">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I73" s="14">
+        <v>7445</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I74" s="14">
+        <v>11032</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I75" s="14">
+        <v>6525</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I76" s="14">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I77" s="14">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I78" s="14">
+        <v>12584</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I79" s="14">
+        <v>15415</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I80" s="14">
+        <v>15917</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I81" s="14">
+        <v>12591</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I82" s="14">
+        <v>9743</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I83" s="14">
+        <v>10324</v>
       </c>
     </row>
   </sheetData>

--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\xADSM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4006876-8B26-48C7-BF66-6062C575E016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B8D24B-969D-4B89-A7BF-91A4ED758C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
   <si>
     <t>xx</t>
   </si>
@@ -532,6 +532,18 @@
   </si>
   <si>
     <t>C08 -CreditCard</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
@@ -2400,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB65A3-1364-407C-A218-9CEDDB8B50CA}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2416,10 +2428,12 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
@@ -2438,8 +2452,14 @@
       <c r="I1" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>98</v>
       </c>
@@ -2476,8 +2496,14 @@
       <c r="O2" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>126</v>
       </c>
@@ -2514,8 +2540,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q3">
+        <v>300</v>
+      </c>
+      <c r="R3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>127</v>
       </c>
@@ -2543,8 +2575,14 @@
       <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q4">
+        <v>280</v>
+      </c>
+      <c r="R4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
@@ -2581,8 +2619,14 @@
       <c r="O5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q5">
+        <v>344</v>
+      </c>
+      <c r="R5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -2619,8 +2663,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <v>385</v>
+      </c>
+      <c r="R6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>132</v>
       </c>
@@ -2630,13 +2680,25 @@
       <c r="G7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q7">
+        <v>372</v>
+      </c>
+      <c r="R7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q8">
+        <v>360</v>
+      </c>
+      <c r="R8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>135</v>
       </c>
@@ -2655,8 +2717,14 @@
       <c r="G9" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q9">
+        <v>288</v>
+      </c>
+      <c r="R9">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -2675,8 +2743,14 @@
       <c r="G10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q10">
+        <v>321</v>
+      </c>
+      <c r="R10">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2</v>
       </c>
@@ -2695,8 +2769,14 @@
       <c r="G11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q11">
+        <v>376</v>
+      </c>
+      <c r="R11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>3</v>
       </c>
@@ -2706,8 +2786,14 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q12">
+        <v>290</v>
+      </c>
+      <c r="R12">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>4</v>
       </c>
@@ -2723,8 +2809,14 @@
       <c r="I13" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q13">
+        <v>301</v>
+      </c>
+      <c r="R13">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>5</v>
       </c>
@@ -2746,8 +2838,14 @@
       <c r="I14" s="14">
         <v>9430</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q14">
+        <v>283</v>
+      </c>
+      <c r="R14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>6</v>
       </c>
@@ -2770,7 +2868,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>7</v>
       </c>

--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\xADSM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B8D24B-969D-4B89-A7BF-91A4ED758C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0DD381-115E-4A56-8E7A-DE554DDED817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,13 +537,13 @@
     <t>C10</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
     <t>Software</t>
+  </si>
+  <si>
+    <t>Old</t>
   </si>
 </sst>
 </file>
@@ -2415,7 +2415,7 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2456,7 +2456,7 @@
         <v>162</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -2497,10 +2497,10 @@
         <v>157</v>
       </c>
       <c r="Q2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">

--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\xADSM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0DD381-115E-4A56-8E7A-DE554DDED817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4291B-263A-4854-AA3A-59AECCA257A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
   <si>
     <t>xx</t>
   </si>
@@ -544,6 +544,15 @@
   </si>
   <si>
     <t>Old</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Matched</t>
   </si>
 </sst>
 </file>
@@ -2415,7 +2424,7 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2429,7 +2438,7 @@
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2890,8 +2899,14 @@
       <c r="I16" s="14">
         <v>4078</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="Q16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>8</v>
       </c>
@@ -2913,8 +2928,14 @@
       <c r="I17" s="14">
         <v>5604</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="Q17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>9</v>
       </c>
@@ -2936,8 +2957,14 @@
       <c r="I18" s="14">
         <v>5179</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>10</v>
       </c>
@@ -2959,8 +2986,14 @@
       <c r="I19" s="14">
         <v>4416</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>11</v>
       </c>
@@ -2982,8 +3015,14 @@
       <c r="I20" s="14">
         <v>10676</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>12</v>
       </c>
@@ -3005,8 +3044,14 @@
       <c r="I21" s="14">
         <v>1627</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="Q21">
+        <v>6.2</v>
+      </c>
+      <c r="R21">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>13</v>
       </c>
@@ -3028,8 +3073,14 @@
       <c r="I22" s="14">
         <v>10112</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>14</v>
       </c>
@@ -3051,8 +3102,14 @@
       <c r="I23" s="14">
         <v>6567</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="Q23">
+        <v>6.4</v>
+      </c>
+      <c r="R23">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -3075,7 +3132,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>16</v>
       </c>
@@ -3089,7 +3146,7 @@
         <v>18719</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>17</v>
       </c>
@@ -3106,7 +3163,7 @@
         <v>14661</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>18</v>
       </c>
@@ -3129,7 +3186,7 @@
         <v>12195</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>19</v>
       </c>
@@ -3152,7 +3209,7 @@
         <v>10544</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>20</v>
       </c>
@@ -3175,7 +3232,7 @@
         <v>13659</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>21</v>
       </c>
@@ -3198,7 +3255,7 @@
         <v>7061</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>22</v>
       </c>
@@ -3221,7 +3278,7 @@
         <v>6245</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>23</v>
       </c>

--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics\xADSM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4291B-263A-4854-AA3A-59AECCA257A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754A64C-A246-4105-8C37-968EF772CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="171">
   <si>
     <t>xx</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>Matched</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>Chemitech</t>
   </si>
 </sst>
 </file>
@@ -2421,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB65A3-1364-407C-A218-9CEDDB8B50CA}">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2440,9 +2446,12 @@
     <col min="10" max="16" width="3.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1796875" customWidth="1"/>
+    <col min="22" max="22" width="3.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
@@ -2467,8 +2476,14 @@
       <c r="R1" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>98</v>
       </c>
@@ -2511,8 +2526,17 @@
       <c r="R2" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>126</v>
       </c>
@@ -2555,8 +2579,17 @@
       <c r="R3">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T3">
+        <v>58</v>
+      </c>
+      <c r="U3">
+        <v>58</v>
+      </c>
+      <c r="V3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>127</v>
       </c>
@@ -2590,8 +2623,17 @@
       <c r="R4">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T4">
+        <v>64</v>
+      </c>
+      <c r="U4">
+        <v>69</v>
+      </c>
+      <c r="V4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
@@ -2634,8 +2676,17 @@
       <c r="R5">
         <v>308</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T5">
+        <v>55</v>
+      </c>
+      <c r="U5">
+        <v>71</v>
+      </c>
+      <c r="V5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -2678,8 +2729,17 @@
       <c r="R6">
         <v>336</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T6">
+        <v>66</v>
+      </c>
+      <c r="U6">
+        <v>64</v>
+      </c>
+      <c r="V6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>132</v>
       </c>
@@ -2695,8 +2755,17 @@
       <c r="R7">
         <v>198</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T7">
+        <v>67</v>
+      </c>
+      <c r="U7">
+        <v>68</v>
+      </c>
+      <c r="V7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>133</v>
       </c>
@@ -2707,7 +2776,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>135</v>
       </c>
@@ -2733,7 +2802,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -2759,7 +2828,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2</v>
       </c>
@@ -2785,7 +2854,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>3</v>
       </c>
@@ -2802,7 +2871,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>4</v>
       </c>
@@ -2825,7 +2894,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>5</v>
       </c>
@@ -2854,7 +2923,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>6</v>
       </c>
@@ -2877,7 +2946,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>7</v>
       </c>
